--- a/src/assets/template/template_dosen.xlsx
+++ b/src/assets/template/template_dosen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lyandwipangestu/Projects/aptfi-web/src/assets/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A567189-891C-0D47-8D39-23D9FE3B7FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{954E750F-1F9F-FD40-AF01-DF1518B62830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19620" xr2:uid="{7790EC2C-7BB6-AE4E-99FE-782144629F82}"/>
   </bookViews>
@@ -20,15 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -64,6 +55,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd\-mm\-yy"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -115,12 +109,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="dd\-mm\-yy"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
@@ -153,14 +150,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C73DE971-DE63-E249-BEF4-85392BC934AA}" name="Table2" displayName="Table2" ref="A1:H1048576" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C73DE971-DE63-E249-BEF4-85392BC934AA}" name="Table2" displayName="Table2" ref="A1:H1048576" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="A1:H1048576" xr:uid="{C73DE971-DE63-E249-BEF4-85392BC934AA}"/>
   <tableColumns count="8">
-    <tableColumn id="8" xr3:uid="{16C56E4E-5DD5-1047-9715-596B95AF2784}" name="No." dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{16C56E4E-5DD5-1047-9715-596B95AF2784}" name="No." dataDxfId="1"/>
     <tableColumn id="1" xr3:uid="{4E5F28DB-0FFA-DE4D-B303-EA6AC8D8FCC6}" name="Nama Lengkap"/>
     <tableColumn id="2" xr3:uid="{7FC4A2B5-2531-254E-B65E-C220872A3AF7}" name="Gelar"/>
     <tableColumn id="3" xr3:uid="{9423475E-98D6-6D40-B2BD-D8C0CFBFF16D}" name="NIDN"/>
-    <tableColumn id="4" xr3:uid="{7CA57167-174A-1046-9A74-436D39CC9D20}" name="Tanggal Lahir "/>
+    <tableColumn id="4" xr3:uid="{7CA57167-174A-1046-9A74-436D39CC9D20}" name="Tanggal Lahir " dataDxfId="0"/>
     <tableColumn id="5" xr3:uid="{FDD2C5B4-BB34-5C41-8E09-3F69C0BD2433}" name="Jabatan Akademik"/>
     <tableColumn id="6" xr3:uid="{040DA471-8E90-8143-93C1-BFA5ABEAF2D8}" name="Bidang Keahlian"/>
     <tableColumn id="7" xr3:uid="{3BE2AD97-B585-034C-B12B-DCCA32471C1B}" name="Prodi"/>
@@ -466,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC45BC70-09F2-C242-97AD-323BE01CB722}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -478,7 +475,7 @@
     <col min="2" max="2" width="32.5" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.33203125" customWidth="1"/>
@@ -509,30 +506,6 @@
       <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E9" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
